--- a/admin/CI3_AH_FC.xlsx
+++ b/admin/CI3_AH_FC.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10114"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10311"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FabioCruz/Documents/01-Projects/ENSGSI/CI3/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/FabioCruz/Documents/01-Projects/ENSGSI/CI3/admin/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{830869A6-BA7D-834E-B2D3-C39686874AFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D6755105-2B50-4743-B68D-181F76382BC7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="40960" windowHeight="22540" xr2:uid="{CD133354-1A36-C844-949E-0D5294AFCF50}"/>
+    <workbookView xWindow="1920" yWindow="500" windowWidth="34560" windowHeight="21100" xr2:uid="{CD133354-1A36-C844-949E-0D5294AFCF50}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -565,6 +565,9 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="20" fontId="3" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
@@ -573,9 +576,6 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1276,8 +1276,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F630C3DF-F4C3-6A4C-9F8C-11A1C6E2AAAC}">
   <dimension ref="A1:K49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17"/>
+    <sheetView tabSelected="1" topLeftCell="A29" workbookViewId="0">
+      <selection activeCell="J52" sqref="J52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1285,8 +1285,8 @@
     <col min="4" max="4" width="21.83203125" customWidth="1"/>
     <col min="7" max="7" width="19.6640625" customWidth="1"/>
     <col min="8" max="8" width="16.83203125" customWidth="1"/>
-    <col min="9" max="9" width="7.33203125" style="16" customWidth="1"/>
-    <col min="10" max="10" width="16.1640625" customWidth="1"/>
+    <col min="9" max="9" width="55.1640625" style="16" customWidth="1"/>
+    <col min="10" max="10" width="90.83203125" customWidth="1"/>
     <col min="11" max="11" width="42.83203125" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1674,10 +1674,10 @@
       <c r="H13" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="I13" s="40" t="s">
+      <c r="I13" s="41" t="s">
         <v>42</v>
       </c>
-      <c r="J13" s="43" t="s">
+      <c r="J13" s="40" t="s">
         <v>52</v>
       </c>
     </row>
@@ -1707,7 +1707,7 @@
       <c r="H14" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="I14" s="40"/>
+      <c r="I14" s="41"/>
       <c r="J14" s="16"/>
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.2">
@@ -1764,7 +1764,7 @@
       <c r="H16" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J16" s="43" t="s">
+      <c r="J16" s="40" t="s">
         <v>58</v>
       </c>
     </row>
@@ -1822,7 +1822,7 @@
       <c r="H18" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="J18" s="43" t="s">
+      <c r="J18" s="40" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2112,7 +2112,7 @@
       <c r="H28" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="J28" s="43" t="s">
+      <c r="J28" s="40" t="s">
         <v>59</v>
       </c>
     </row>
@@ -2231,7 +2231,7 @@
       <c r="J32" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K32" s="42" t="s">
+      <c r="K32" s="43" t="s">
         <v>53</v>
       </c>
     </row>
@@ -2262,7 +2262,7 @@
         <v>33</v>
       </c>
       <c r="J33" s="16"/>
-      <c r="K33" s="42"/>
+      <c r="K33" s="43"/>
     </row>
     <row r="34" spans="1:11" ht="34" x14ac:dyDescent="0.2">
       <c r="A34" s="8" t="s">
@@ -2293,7 +2293,7 @@
       <c r="J34" s="16" t="s">
         <v>54</v>
       </c>
-      <c r="K34" s="42"/>
+      <c r="K34" s="43"/>
     </row>
     <row r="35" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A35" s="8" t="s">
@@ -2321,7 +2321,7 @@
       <c r="H35" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I35" s="41" t="s">
+      <c r="I35" s="42" t="s">
         <v>45</v>
       </c>
       <c r="J35" s="16"/>
@@ -2352,8 +2352,8 @@
       <c r="H36" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I36" s="41"/>
-      <c r="J36" s="43" t="s">
+      <c r="I36" s="42"/>
+      <c r="J36" s="40" t="s">
         <v>52</v>
       </c>
     </row>
@@ -2383,7 +2383,7 @@
       <c r="H37" s="14" t="s">
         <v>33</v>
       </c>
-      <c r="I37" s="41"/>
+      <c r="I37" s="42"/>
       <c r="J37" s="16"/>
     </row>
     <row r="38" spans="1:11" ht="68" x14ac:dyDescent="0.2">
@@ -2412,8 +2412,8 @@
       <c r="H38" s="29" t="s">
         <v>33</v>
       </c>
-      <c r="I38" s="41"/>
-      <c r="J38" s="43" t="s">
+      <c r="I38" s="42"/>
+      <c r="J38" s="40" t="s">
         <v>52</v>
       </c>
     </row>
